--- a/data/trans_orig/IP22D5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D5_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ACB34C9-8693-42D5-B2CB-120F4114E3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA60E9B-510A-424E-98A8-9A2AD06EFE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE24C364-85E5-4FD9-AC43-EF7723E82130}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CE75617-9479-4E0E-844C-8E9DFA843B04}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
@@ -107,7 +107,7 @@
     <t>No lo pudo recibir por motivos económicos</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -128,7 +128,7 @@
     <t>7,06%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -137,13 +137,13 @@
     <t>95,14%</t>
   </si>
   <si>
-    <t>74,75%</t>
+    <t>75,78%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>88,35%</t>
+    <t>87,86%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -152,13 +152,13 @@
     <t>4,86%</t>
   </si>
   <si>
-    <t>25,25%</t>
+    <t>24,22%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>11,65%</t>
+    <t>12,14%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -167,43 +167,43 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>80,39%</t>
+    <t>77,53%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>70,75%</t>
+    <t>70,72%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>85,3%</t>
+    <t>86,11%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>19,61%</t>
+    <t>22,47%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>29,25%</t>
+    <t>29,28%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>14,7%</t>
+    <t>13,89%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -218,7 +218,7 @@
     <t>89,99%</t>
   </si>
   <si>
-    <t>66,6%</t>
+    <t>68,31%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -227,13 +227,13 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>72,06%</t>
+    <t>76,57%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>27,18%</t>
+    <t>26,31%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -242,70 +242,70 @@
     <t>4,46%</t>
   </si>
   <si>
-    <t>25,78%</t>
+    <t>20,13%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>19,46%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>13,85%</t>
+    <t>12,98%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>89,66%</t>
+    <t>88,64%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>8,96%</t>
+    <t>10,21%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>10,34%</t>
+    <t>11,36%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -314,7 +314,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01062E68-07DF-40F4-B425-380AE485F7AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC2583E-4EF3-4A3F-B41F-B45E9C41016C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA60E9B-510A-424E-98A8-9A2AD06EFE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE63429-31D5-44BF-83D3-E8062939C9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CE75617-9479-4E0E-844C-8E9DFA843B04}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{50860DED-E936-48E7-BA99-794FD3693243}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="88">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
@@ -74,16 +74,16 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>90,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -95,226 +95,208 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
     <t>6,57%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -729,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC2583E-4EF3-4A3F-B41F-B45E9C41016C}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D4C830-BC3B-47E9-8416-9FAE57239805}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -847,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -862,10 +844,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>1983</v>
+        <v>10225</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -877,10 +859,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>2654</v>
+        <v>21054</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1000,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1015,10 +997,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>1983</v>
+        <v>10225</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1030,10 +1012,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N7" s="7">
-        <v>2654</v>
+        <v>21054</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1053,49 +1035,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>8671</v>
+        <v>19594</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N8" s="7">
-        <v>17308</v>
+        <v>36816</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1104,19 +1086,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1131,22 +1113,22 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1167,7 +1149,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1182,7 +1164,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1197,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1206,10 +1188,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>8671</v>
+        <v>20432</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1221,10 +1203,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1236,10 +1218,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N11" s="7">
-        <v>17308</v>
+        <v>37654</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1253,52 +1235,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>16364</v>
+        <v>11220</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H12" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>16189</v>
+        <v>11305</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M12" s="7">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7">
+        <v>22526</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="N12" s="7">
-        <v>32553</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>11</v>
@@ -1310,49 +1292,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>828</v>
+        <v>396</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>828</v>
+        <v>981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1388,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1403,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1412,10 +1394,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7">
-        <v>16364</v>
+        <v>11806</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1427,10 +1409,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>17017</v>
+        <v>11701</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1442,10 +1424,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N15" s="7">
-        <v>33381</v>
+        <v>23507</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1459,52 +1441,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5099</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
-        <v>10079</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>10976</v>
+        <v>12755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>21055</v>
+        <v>17854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1516,49 +1498,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>963</v>
+        <v>850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,37 +1561,37 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>10467</v>
+        <v>5099</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1633,10 +1615,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>11551</v>
+        <v>14124</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1648,10 +1630,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>22018</v>
+        <v>19223</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -1665,55 +1647,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D20" s="7">
-        <v>11918</v>
+        <v>46742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I20" s="7">
-        <v>5172</v>
+        <v>51507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M20" s="7">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="N20" s="7">
-        <v>17090</v>
+        <v>98249</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,49 +1704,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>821</v>
+        <v>1424</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>821</v>
+        <v>2670</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,49 +1755,49 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
-        <v>504</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,10 +1806,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D23" s="7">
-        <v>13244</v>
+        <v>48166</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -1839,10 +1821,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="I23" s="7">
-        <v>5172</v>
+        <v>53272</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -1854,10 +1836,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="N23" s="7">
-        <v>18416</v>
+        <v>101438</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -1870,222 +1852,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>61</v>
-      </c>
-      <c r="D24" s="7">
-        <v>47703</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="7">
-        <v>61</v>
-      </c>
-      <c r="I24" s="7">
-        <v>42957</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="7">
-        <v>122</v>
-      </c>
-      <c r="N24" s="7">
-        <v>90661</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1209</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1403</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2612</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q25" s="7" t="s">
+      <c r="A24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>504</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>504</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>64</v>
-      </c>
-      <c r="D27" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>63</v>
-      </c>
-      <c r="I27" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>127</v>
-      </c>
-      <c r="N27" s="7">
-        <v>93777</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
